--- a/Monthly/Ljung_Box/First Difference/toyota.xlsx
+++ b/Monthly/Ljung_Box/First Difference/toyota.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01227504625273394</v>
+        <v>0.004293644204147387</v>
+      </c>
+      <c r="C2">
+        <v>0.9477552815791499</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4498449850636533</v>
+        <v>0.01028107050951349</v>
+      </c>
+      <c r="C3">
+        <v>0.9948726546857993</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.23373155069079</v>
+        <v>0.03389648717976548</v>
       </c>
       <c r="C4">
-        <v>0.1350273936598243</v>
+        <v>0.9983569952907455</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.699619362192952</v>
+        <v>0.1820412906369556</v>
       </c>
       <c r="C5">
-        <v>0.2592896036633524</v>
+        <v>0.9961006071059617</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.387785614730643</v>
+        <v>0.4412288198472229</v>
       </c>
       <c r="C6">
-        <v>0.2225206202801736</v>
+        <v>0.9941175751782445</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.484768081889579</v>
+        <v>0.4910928675216575</v>
       </c>
       <c r="C7">
-        <v>0.3443574140655061</v>
+        <v>0.997945208699777</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.487186033721076</v>
+        <v>0.499596807450022</v>
       </c>
       <c r="C8">
-        <v>0.3593530248736809</v>
+        <v>0.9994479563789891</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.34508160352893</v>
+        <v>1.20495753629438</v>
       </c>
       <c r="C9">
-        <v>0.2138959595555005</v>
+        <v>0.9965927144094043</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10.53735817394061</v>
+        <v>1.793575586575441</v>
       </c>
       <c r="C10">
-        <v>0.1601109337766321</v>
+        <v>0.9943272359442866</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10.53759330570101</v>
+        <v>2.798749514270245</v>
       </c>
       <c r="C11">
-        <v>0.2293004914167657</v>
+        <v>0.9857713688915383</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11.08902349127165</v>
+        <v>3.838534696330592</v>
       </c>
       <c r="C12">
-        <v>0.2696561739891702</v>
+        <v>0.9744042852789953</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11.51781644001369</v>
+        <v>4.249758705256392</v>
       </c>
       <c r="C13">
-        <v>0.3186217904921177</v>
+        <v>0.9784961277513086</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11.84264427501676</v>
+        <v>5.194698118754856</v>
       </c>
       <c r="C14">
-        <v>0.3755867047274143</v>
+        <v>0.970653185767349</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12.27748987437857</v>
+        <v>5.198866021694752</v>
       </c>
       <c r="C15">
-        <v>0.4236593324338516</v>
+        <v>0.9828479652158869</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>18.03371560512825</v>
+        <v>10.64361936650769</v>
       </c>
       <c r="C16">
-        <v>0.1562434914966191</v>
+        <v>0.7774242855261362</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>19.54580690440673</v>
+        <v>11.66720251101414</v>
       </c>
       <c r="C17">
-        <v>0.1451236419371879</v>
+        <v>0.7665538795446742</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>21.05841890760117</v>
+        <v>12.44688842363524</v>
       </c>
       <c r="C18">
-        <v>0.1349731774142783</v>
+        <v>0.7723541579734337</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>22.39577532051162</v>
+        <v>14.26586069480711</v>
       </c>
       <c r="C19">
-        <v>0.130865991792361</v>
+        <v>0.7116029142473674</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>22.42515103407146</v>
+        <v>14.53509726572373</v>
       </c>
       <c r="C20">
-        <v>0.1689166346975235</v>
+        <v>0.7516524761543416</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>22.58383584049969</v>
+        <v>14.55918070491817</v>
       </c>
       <c r="C21">
-        <v>0.2070922742119879</v>
+        <v>0.8010514760103926</v>
       </c>
     </row>
   </sheetData>
